--- a/springboot-jxlstest/src/main/resources/templates/template02.xlsx
+++ b/springboot-jxlstest/src/main/resources/templates/template02.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBDCEA-FB3C-4F75-8A1D-FFF95C345A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9073DB34-EEEC-4A51-B654-103DF719CFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="2" r:id="rId1"/>
@@ -20,9 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>${DATA1}</t>
+    <t>$C[]{headers}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$R[]{datas}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -30,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +49,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -353,17 +373,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD37F858-642E-4644-AD3D-FC88481974E5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/springboot-jxlstest/src/main/resources/templates/template02.xlsx
+++ b/springboot-jxlstest/src/main/resources/templates/template02.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9073DB34-EEEC-4A51-B654-103DF719CFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4C8C2-9E55-4834-9EE7-B66F30A69413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="2" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
